--- a/Code/Results/Cases/Case_7_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_31/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014270851672283</v>
+        <v>1.033232602451577</v>
       </c>
       <c r="D2">
-        <v>1.032812545042103</v>
+        <v>1.049119928334752</v>
       </c>
       <c r="E2">
-        <v>1.018101210694079</v>
+        <v>1.034664645913745</v>
       </c>
       <c r="F2">
-        <v>1.037001380185576</v>
+        <v>1.053590864878282</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048855860400751</v>
+        <v>1.058642192236226</v>
       </c>
       <c r="J2">
-        <v>1.036032943995325</v>
+        <v>1.054462815134234</v>
       </c>
       <c r="K2">
-        <v>1.043832919718696</v>
+        <v>1.059934869554976</v>
       </c>
       <c r="L2">
-        <v>1.029313997799033</v>
+        <v>1.0456612813116</v>
       </c>
       <c r="M2">
-        <v>1.04796821562761</v>
+        <v>1.064350864570729</v>
       </c>
       <c r="N2">
-        <v>1.037504229610438</v>
+        <v>1.0559602732803</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021603279825315</v>
+        <v>1.039214328071498</v>
       </c>
       <c r="D3">
-        <v>1.038560891665226</v>
+        <v>1.053894383887587</v>
       </c>
       <c r="E3">
-        <v>1.024231134055871</v>
+        <v>1.039618965000344</v>
       </c>
       <c r="F3">
-        <v>1.043295457594266</v>
+        <v>1.058882953409659</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05122437101102</v>
+        <v>1.060896936276656</v>
       </c>
       <c r="J3">
-        <v>1.041521854768908</v>
+        <v>1.058690201919076</v>
       </c>
       <c r="K3">
-        <v>1.04872305302658</v>
+        <v>1.063881165653722</v>
       </c>
       <c r="L3">
-        <v>1.034563083496163</v>
+        <v>1.049768819071493</v>
       </c>
       <c r="M3">
-        <v>1.053402787156323</v>
+        <v>1.068814024793741</v>
       </c>
       <c r="N3">
-        <v>1.043000935266906</v>
+        <v>1.060193663439265</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026211733365151</v>
+        <v>1.042991413397067</v>
       </c>
       <c r="D4">
-        <v>1.042176323376027</v>
+        <v>1.05691198290139</v>
       </c>
       <c r="E4">
-        <v>1.02808941437999</v>
+        <v>1.042752399488853</v>
       </c>
       <c r="F4">
-        <v>1.047256812081699</v>
+        <v>1.062229888889488</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052701259407854</v>
+        <v>1.062311258031225</v>
       </c>
       <c r="J4">
-        <v>1.044967902303808</v>
+        <v>1.061355853970291</v>
       </c>
       <c r="K4">
-        <v>1.051791031422247</v>
+        <v>1.066368827398007</v>
       </c>
       <c r="L4">
-        <v>1.037860244882067</v>
+        <v>1.052360833194487</v>
       </c>
       <c r="M4">
-        <v>1.056816477684497</v>
+        <v>1.071631076259838</v>
       </c>
       <c r="N4">
-        <v>1.046451876584573</v>
+        <v>1.062863101022147</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028118305792845</v>
+        <v>1.044557916454929</v>
       </c>
       <c r="D5">
-        <v>1.043672584629417</v>
+        <v>1.058164111270903</v>
       </c>
       <c r="E5">
-        <v>1.029686887161931</v>
+        <v>1.044053117407288</v>
       </c>
       <c r="F5">
-        <v>1.048896888700522</v>
+        <v>1.063619205184493</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053309388715137</v>
+        <v>1.062895530726883</v>
       </c>
       <c r="J5">
-        <v>1.046392607241077</v>
+        <v>1.062460474859934</v>
       </c>
       <c r="K5">
-        <v>1.053058893443092</v>
+        <v>1.067399502042447</v>
       </c>
       <c r="L5">
-        <v>1.039223789401833</v>
+        <v>1.053435397756666</v>
       </c>
       <c r="M5">
-        <v>1.058228203149648</v>
+        <v>1.072799082713997</v>
       </c>
       <c r="N5">
-        <v>1.047878604766269</v>
+        <v>1.063969290600155</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028436669016132</v>
+        <v>1.044819713111383</v>
       </c>
       <c r="D6">
-        <v>1.04392246058374</v>
+        <v>1.058373403335943</v>
       </c>
       <c r="E6">
-        <v>1.029953707714454</v>
+        <v>1.044270562214855</v>
       </c>
       <c r="F6">
-        <v>1.049170820580132</v>
+        <v>1.063851459672995</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05341076436358</v>
+        <v>1.062993038832526</v>
       </c>
       <c r="J6">
-        <v>1.046630448599837</v>
+        <v>1.062645025143158</v>
       </c>
       <c r="K6">
-        <v>1.053270519090241</v>
+        <v>1.06757168664941</v>
       </c>
       <c r="L6">
-        <v>1.039451443495016</v>
+        <v>1.053614953299358</v>
       </c>
       <c r="M6">
-        <v>1.058463900446371</v>
+        <v>1.072994260740584</v>
       </c>
       <c r="N6">
-        <v>1.048116783887039</v>
+        <v>1.064154102965949</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026237327956771</v>
+        <v>1.043012427836508</v>
       </c>
       <c r="D7">
-        <v>1.042196407886224</v>
+        <v>1.056928777702265</v>
       </c>
       <c r="E7">
-        <v>1.028110854636869</v>
+        <v>1.042769843938742</v>
       </c>
       <c r="F7">
-        <v>1.047278824444763</v>
+        <v>1.062248521674708</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05270943464552</v>
+        <v>1.062319105129107</v>
       </c>
       <c r="J7">
-        <v>1.044987032021626</v>
+        <v>1.061370676045946</v>
       </c>
       <c r="K7">
-        <v>1.051808057343127</v>
+        <v>1.066382658004517</v>
       </c>
       <c r="L7">
-        <v>1.037878551843239</v>
+        <v>1.052375250160763</v>
       </c>
       <c r="M7">
-        <v>1.056835431580286</v>
+        <v>1.071646746308994</v>
       </c>
       <c r="N7">
-        <v>1.046471033468784</v>
+        <v>1.062877944146849</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016778173426972</v>
+        <v>1.035274134400364</v>
       </c>
       <c r="D8">
-        <v>1.034777580029366</v>
+        <v>1.050748789381586</v>
       </c>
       <c r="E8">
-        <v>1.02019609747988</v>
+        <v>1.036354420872778</v>
       </c>
       <c r="F8">
-        <v>1.039152409774454</v>
+        <v>1.055395871292114</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04966820560656</v>
+        <v>1.059413675330552</v>
       </c>
       <c r="J8">
-        <v>1.037910624087176</v>
+        <v>1.055906345174584</v>
       </c>
       <c r="K8">
-        <v>1.045506204784142</v>
+        <v>1.061282565329077</v>
       </c>
       <c r="L8">
-        <v>1.031109276193753</v>
+        <v>1.047063475510251</v>
       </c>
       <c r="M8">
-        <v>1.049826920582976</v>
+        <v>1.065874325356158</v>
       </c>
       <c r="N8">
-        <v>1.039384576223393</v>
+        <v>1.057405853298883</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9989798115421223</v>
+        <v>1.020873811721499</v>
       </c>
       <c r="D9">
-        <v>1.02084460023416</v>
+        <v>1.039274309118925</v>
       </c>
       <c r="E9">
-        <v>1.005353715327417</v>
+        <v>1.024459733903026</v>
       </c>
       <c r="F9">
-        <v>1.023911804258832</v>
+        <v>1.042689403858577</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043853917201246</v>
+        <v>1.053933535984017</v>
       </c>
       <c r="J9">
-        <v>1.024568646798446</v>
+        <v>1.045710399150199</v>
       </c>
       <c r="K9">
-        <v>1.033608304499217</v>
+        <v>1.051760777794782</v>
       </c>
       <c r="L9">
-        <v>1.018360525334154</v>
+        <v>1.037168053512931</v>
       </c>
       <c r="M9">
-        <v>1.036628486203506</v>
+        <v>1.055125865298462</v>
       </c>
       <c r="N9">
-        <v>1.026023651796566</v>
+        <v>1.047195427861652</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9862168936007053</v>
+        <v>1.010685760223289</v>
       </c>
       <c r="D10">
-        <v>1.010879922211884</v>
+        <v>1.031178871827807</v>
       </c>
       <c r="E10">
-        <v>0.9947519022796455</v>
+        <v>1.01607882831381</v>
       </c>
       <c r="F10">
-        <v>1.013025747691028</v>
+        <v>1.033735592778986</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039626752223167</v>
+        <v>1.050009714868036</v>
       </c>
       <c r="J10">
-        <v>1.014988240596165</v>
+        <v>1.038481736819424</v>
       </c>
       <c r="K10">
-        <v>1.025055476152552</v>
+        <v>1.045007111935548</v>
       </c>
       <c r="L10">
-        <v>1.009216563703181</v>
+        <v>1.030163718824052</v>
       </c>
       <c r="M10">
-        <v>1.02716373464364</v>
+        <v>1.047521332711124</v>
       </c>
       <c r="N10">
-        <v>1.01642964031859</v>
+        <v>1.039956500001228</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9804416534971746</v>
+        <v>1.006116276446451</v>
       </c>
       <c r="D11">
-        <v>1.006379350972691</v>
+        <v>1.027554548836541</v>
       </c>
       <c r="E11">
-        <v>0.9899662876890474</v>
+        <v>1.012329193641121</v>
       </c>
       <c r="F11">
-        <v>1.008112159098304</v>
+        <v>1.029729380785599</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037701425398606</v>
+        <v>1.048239501913318</v>
       </c>
       <c r="J11">
-        <v>1.010651341732948</v>
+        <v>1.035236806332049</v>
       </c>
       <c r="K11">
-        <v>1.021181956560578</v>
+        <v>1.041974885487885</v>
       </c>
       <c r="L11">
-        <v>1.005079938654747</v>
+        <v>1.02702228566086</v>
       </c>
       <c r="M11">
-        <v>1.022882696497864</v>
+        <v>1.044111609018726</v>
       </c>
       <c r="N11">
-        <v>1.012086582561538</v>
+        <v>1.036706961340362</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.978255556905308</v>
+        <v>1.004393473442692</v>
       </c>
       <c r="D12">
-        <v>1.004677234245831</v>
+        <v>1.0261891979495</v>
       </c>
       <c r="E12">
-        <v>0.9881567355695948</v>
+        <v>1.010916999256848</v>
       </c>
       <c r="F12">
-        <v>1.006254294534917</v>
+        <v>1.028220511814937</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036970866276655</v>
+        <v>1.047570608634115</v>
       </c>
       <c r="J12">
-        <v>1.009009567057398</v>
+        <v>1.034013050494852</v>
       </c>
       <c r="K12">
-        <v>1.019715371099996</v>
+        <v>1.040831284966066</v>
       </c>
       <c r="L12">
-        <v>1.003514406449365</v>
+        <v>1.025837993490521</v>
       </c>
       <c r="M12">
-        <v>1.021262645108237</v>
+        <v>1.042826312513668</v>
       </c>
       <c r="N12">
-        <v>1.010442476377634</v>
+        <v>1.03548146762951</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9787263953216488</v>
+        <v>1.004764204245314</v>
       </c>
       <c r="D13">
-        <v>1.005043763335908</v>
+        <v>1.026482956676997</v>
       </c>
       <c r="E13">
-        <v>0.9885463835818361</v>
+        <v>1.011220820231343</v>
       </c>
       <c r="F13">
-        <v>1.006654341614002</v>
+        <v>1.028545133406955</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037128290835658</v>
+        <v>1.047714613817689</v>
       </c>
       <c r="J13">
-        <v>1.009363173892783</v>
+        <v>1.034276405195453</v>
       </c>
       <c r="K13">
-        <v>1.020031255089643</v>
+        <v>1.041077392574647</v>
       </c>
       <c r="L13">
-        <v>1.003851572488461</v>
+        <v>1.026092835831254</v>
       </c>
       <c r="M13">
-        <v>1.021611546275122</v>
+        <v>1.043102883171255</v>
       </c>
       <c r="N13">
-        <v>1.010796585375284</v>
+        <v>1.035745196323993</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9802618068006949</v>
+        <v>1.005974399834036</v>
       </c>
       <c r="D14">
-        <v>1.00623928922524</v>
+        <v>1.027442086085794</v>
       </c>
       <c r="E14">
-        <v>0.9898173782093908</v>
+        <v>1.012212865108559</v>
       </c>
       <c r="F14">
-        <v>1.007959272207071</v>
+        <v>1.029605089621562</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037641358580186</v>
+        <v>1.048184446738633</v>
       </c>
       <c r="J14">
-        <v>1.010516277412354</v>
+        <v>1.035136033806835</v>
       </c>
       <c r="K14">
-        <v>1.021061308938075</v>
+        <v>1.041880714652529</v>
       </c>
       <c r="L14">
-        <v>1.004951137809026</v>
+        <v>1.026924754008414</v>
       </c>
       <c r="M14">
-        <v>1.02274940729199</v>
+        <v>1.044005756373479</v>
       </c>
       <c r="N14">
-        <v>1.011951326434116</v>
+        <v>1.036606045706603</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9812022893294661</v>
+        <v>1.00671660772411</v>
       </c>
       <c r="D15">
-        <v>1.006971783535704</v>
+        <v>1.028030465071577</v>
       </c>
       <c r="E15">
-        <v>0.9905961590615757</v>
+        <v>1.012821483714675</v>
       </c>
       <c r="F15">
-        <v>1.008758857824995</v>
+        <v>1.03025536614767</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037955398312582</v>
+        <v>1.0484724004053</v>
       </c>
       <c r="J15">
-        <v>1.011222572367687</v>
+        <v>1.035663197947944</v>
       </c>
       <c r="K15">
-        <v>1.021692205335545</v>
+        <v>1.042373341445256</v>
       </c>
       <c r="L15">
-        <v>1.005624696510252</v>
+        <v>1.027434982052627</v>
       </c>
       <c r="M15">
-        <v>1.023446443345944</v>
+        <v>1.044559520616294</v>
       </c>
       <c r="N15">
-        <v>1.012658624409299</v>
+        <v>1.037133958481259</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9865946436075005</v>
+        <v>1.01098554698146</v>
       </c>
       <c r="D16">
-        <v>1.011174490161385</v>
+        <v>1.031416796454829</v>
       </c>
       <c r="E16">
-        <v>0.9950651796858719</v>
+        <v>1.016325030158743</v>
       </c>
       <c r="F16">
-        <v>1.013347411699912</v>
+        <v>1.033998635912468</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039752435185802</v>
+        <v>1.050125643234299</v>
       </c>
       <c r="J16">
-        <v>1.015271885243515</v>
+        <v>1.038694573242586</v>
       </c>
       <c r="K16">
-        <v>1.025308780926291</v>
+        <v>1.045205987578721</v>
       </c>
       <c r="L16">
-        <v>1.009487167531719</v>
+        <v>1.030369825854631</v>
       </c>
       <c r="M16">
-        <v>1.027443802463593</v>
+        <v>1.047745061041679</v>
       </c>
       <c r="N16">
-        <v>1.016713687773874</v>
+        <v>1.040169638676524</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9899081539870083</v>
+        <v>1.013619852885332</v>
       </c>
       <c r="D17">
-        <v>1.013759329899007</v>
+        <v>1.033508263884722</v>
       </c>
       <c r="E17">
-        <v>0.9978144980776846</v>
+        <v>1.018489539809451</v>
       </c>
       <c r="F17">
-        <v>1.016170371330399</v>
+        <v>1.036311177835566</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040853487634254</v>
+        <v>1.051143173910109</v>
       </c>
       <c r="J17">
-        <v>1.017759748208908</v>
+        <v>1.040564517516952</v>
       </c>
       <c r="K17">
-        <v>1.027530333876538</v>
+        <v>1.046953217718263</v>
       </c>
       <c r="L17">
-        <v>1.011860955879995</v>
+        <v>1.032180965171716</v>
       </c>
       <c r="M17">
-        <v>1.029900693810393</v>
+        <v>1.049711147458438</v>
       </c>
       <c r="N17">
-        <v>1.01920508379004</v>
+        <v>1.042042238486244</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9918171230578455</v>
+        <v>1.015141282467289</v>
       </c>
       <c r="D18">
-        <v>1.015249279867906</v>
+        <v>1.034716795025086</v>
       </c>
       <c r="E18">
-        <v>0.9993995153418594</v>
+        <v>1.019740514027089</v>
       </c>
       <c r="F18">
-        <v>1.01779787303621</v>
+        <v>1.037647682800898</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041486637290922</v>
+        <v>1.051729863280944</v>
       </c>
       <c r="J18">
-        <v>1.01919287428647</v>
+        <v>1.041644226695315</v>
       </c>
       <c r="K18">
-        <v>1.02880988191985</v>
+        <v>1.047962021198897</v>
       </c>
       <c r="L18">
-        <v>1.01322862198947</v>
+        <v>1.033226983573858</v>
       </c>
       <c r="M18">
-        <v>1.03131630459184</v>
+        <v>1.050846739605007</v>
       </c>
       <c r="N18">
-        <v>1.020640245071013</v>
+        <v>1.043123480975485</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9924641046379393</v>
+        <v>1.01565753725861</v>
       </c>
       <c r="D19">
-        <v>1.015754375396122</v>
+        <v>1.035126977540399</v>
       </c>
       <c r="E19">
-        <v>0.999936883866906</v>
+        <v>1.020165142383459</v>
       </c>
       <c r="F19">
-        <v>1.018349649274845</v>
+        <v>1.038101339539956</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041701018047433</v>
+        <v>1.051928771742162</v>
       </c>
       <c r="J19">
-        <v>1.019678551620177</v>
+        <v>1.042010548441898</v>
       </c>
       <c r="K19">
-        <v>1.029243482481197</v>
+        <v>1.048304277172968</v>
       </c>
       <c r="L19">
-        <v>1.013692157586555</v>
+        <v>1.033581919111557</v>
       </c>
       <c r="M19">
-        <v>1.03179609998349</v>
+        <v>1.05123208357583</v>
       </c>
       <c r="N19">
-        <v>1.021126612122242</v>
+        <v>1.043490322940966</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9895551258912306</v>
+        <v>1.013338792521463</v>
       </c>
       <c r="D20">
-        <v>1.013483853342946</v>
+        <v>1.033285055608385</v>
       </c>
       <c r="E20">
-        <v>0.9975214657750379</v>
+        <v>1.018258511755797</v>
       </c>
       <c r="F20">
-        <v>1.015869486846477</v>
+        <v>1.036064352154385</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040736301674737</v>
+        <v>1.051034712429903</v>
       </c>
       <c r="J20">
-        <v>1.017494703423953</v>
+        <v>1.040365035950191</v>
       </c>
       <c r="K20">
-        <v>1.027293677949022</v>
+        <v>1.046766832138662</v>
       </c>
       <c r="L20">
-        <v>1.011608037678087</v>
+        <v>1.031987729367812</v>
       </c>
       <c r="M20">
-        <v>1.029638914392774</v>
+        <v>1.049501371092241</v>
       </c>
       <c r="N20">
-        <v>1.018939662611088</v>
+        <v>1.041842473632778</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9798108265365024</v>
+        <v>1.005618746104078</v>
       </c>
       <c r="D21">
-        <v>1.005888097525278</v>
+        <v>1.02716018466845</v>
       </c>
       <c r="E21">
-        <v>0.9894440074242273</v>
+        <v>1.01192127946279</v>
       </c>
       <c r="F21">
-        <v>1.007575929935601</v>
+        <v>1.029293544393846</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037490708136743</v>
+        <v>1.048046411825099</v>
       </c>
       <c r="J21">
-        <v>1.010177590955221</v>
+        <v>1.034883413847534</v>
       </c>
       <c r="K21">
-        <v>1.02075877019486</v>
+        <v>1.041644643102041</v>
       </c>
       <c r="L21">
-        <v>1.004628164542352</v>
+        <v>1.026680265370336</v>
       </c>
       <c r="M21">
-        <v>1.022415181554001</v>
+        <v>1.043740411235554</v>
       </c>
       <c r="N21">
-        <v>1.011612159003366</v>
+        <v>1.036353066997984</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9734453735012419</v>
+        <v>1.000616351148887</v>
       </c>
       <c r="D22">
-        <v>1.000934961538042</v>
+        <v>1.02319793075846</v>
       </c>
       <c r="E22">
-        <v>0.9841788855289568</v>
+        <v>1.00782376262283</v>
       </c>
       <c r="F22">
-        <v>1.00217041805695</v>
+        <v>1.024915440761376</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035360257507245</v>
+        <v>1.046101461883546</v>
       </c>
       <c r="J22">
-        <v>1.005396998204155</v>
+        <v>1.031329515618197</v>
       </c>
       <c r="K22">
-        <v>1.016487919383827</v>
+        <v>1.038323426611534</v>
       </c>
       <c r="L22">
-        <v>1.000070414910394</v>
+        <v>1.023241806388212</v>
       </c>
       <c r="M22">
-        <v>1.017699000812029</v>
+        <v>1.040008965735174</v>
       </c>
       <c r="N22">
-        <v>1.006824777262252</v>
+        <v>1.032794121825524</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9768437632039402</v>
+        <v>1.003282923609305</v>
       </c>
       <c r="D23">
-        <v>1.003578443123862</v>
+        <v>1.025309394378499</v>
       </c>
       <c r="E23">
-        <v>0.9869886884865758</v>
+        <v>1.010007111839831</v>
       </c>
       <c r="F23">
-        <v>1.005055087860385</v>
+        <v>1.02724832401712</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036498584417754</v>
+        <v>1.047139019676095</v>
       </c>
       <c r="J23">
-        <v>1.007949279976712</v>
+        <v>1.033224109493466</v>
       </c>
       <c r="K23">
-        <v>1.018768165729315</v>
+        <v>1.040094004044802</v>
       </c>
       <c r="L23">
-        <v>1.002503481283619</v>
+        <v>1.025074617516731</v>
       </c>
       <c r="M23">
-        <v>1.02021655664177</v>
+        <v>1.041997870409119</v>
       </c>
       <c r="N23">
-        <v>1.009380683567677</v>
+        <v>1.034691406241408</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9897147172106208</v>
+        <v>1.01346583818638</v>
       </c>
       <c r="D24">
-        <v>1.013608383988754</v>
+        <v>1.033385948916206</v>
       </c>
       <c r="E24">
-        <v>0.9976539317831753</v>
+        <v>1.018362938979548</v>
       </c>
       <c r="F24">
-        <v>1.016005502364368</v>
+        <v>1.036175920154603</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040789280927163</v>
+        <v>1.051083742527926</v>
       </c>
       <c r="J24">
-        <v>1.017614521198325</v>
+        <v>1.040455206982166</v>
       </c>
       <c r="K24">
-        <v>1.027400662616102</v>
+        <v>1.046851083589779</v>
       </c>
       <c r="L24">
-        <v>1.011722372652316</v>
+        <v>1.032075076330716</v>
       </c>
       <c r="M24">
-        <v>1.029757254996636</v>
+        <v>1.049596194502305</v>
       </c>
       <c r="N24">
-        <v>1.019059650540443</v>
+        <v>1.041932772717961</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.003728262926035</v>
+        <v>1.024694446897158</v>
       </c>
       <c r="D25">
-        <v>1.024557950519462</v>
+        <v>1.042315171889728</v>
       </c>
       <c r="E25">
-        <v>1.009307047063345</v>
+        <v>1.027610032990198</v>
       </c>
       <c r="F25">
-        <v>1.027971253604311</v>
+        <v>1.046054850283809</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045415323652678</v>
+        <v>1.055395738652584</v>
       </c>
       <c r="J25">
-        <v>1.028130804309223</v>
+        <v>1.048418395974668</v>
       </c>
       <c r="K25">
-        <v>1.036786632634227</v>
+        <v>1.05429028502916</v>
       </c>
       <c r="L25">
-        <v>1.021762580948701</v>
+        <v>1.03979434159223</v>
       </c>
       <c r="M25">
-        <v>1.040150332606644</v>
+        <v>1.057977945915269</v>
       </c>
       <c r="N25">
-        <v>1.029590867979594</v>
+        <v>1.049907270352223</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_31/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033232602451577</v>
+        <v>1.016728031444747</v>
       </c>
       <c r="D2">
-        <v>1.049119928334752</v>
+        <v>1.034266606922278</v>
       </c>
       <c r="E2">
-        <v>1.034664645913745</v>
+        <v>1.020801350307002</v>
       </c>
       <c r="F2">
-        <v>1.053590864878282</v>
+        <v>1.040150216546736</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058642192236226</v>
+        <v>1.050569880400765</v>
       </c>
       <c r="J2">
-        <v>1.054462815134234</v>
+        <v>1.038419667657149</v>
       </c>
       <c r="K2">
-        <v>1.059934869554976</v>
+        <v>1.045268335215058</v>
       </c>
       <c r="L2">
-        <v>1.0456612813116</v>
+        <v>1.031978300512633</v>
       </c>
       <c r="M2">
-        <v>1.064350864570729</v>
+        <v>1.05107715972471</v>
       </c>
       <c r="N2">
-        <v>1.0559602732803</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.016386546833452</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.04899648705508</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039214328071498</v>
+        <v>1.020758509390477</v>
       </c>
       <c r="D3">
-        <v>1.053894383887587</v>
+        <v>1.037109578873834</v>
       </c>
       <c r="E3">
-        <v>1.039618965000344</v>
+        <v>1.024009115292254</v>
       </c>
       <c r="F3">
-        <v>1.058882953409659</v>
+        <v>1.042972144969807</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.060896936276656</v>
+        <v>1.051678169564828</v>
       </c>
       <c r="J3">
-        <v>1.058690201919076</v>
+        <v>1.040698839733324</v>
       </c>
       <c r="K3">
-        <v>1.063881165653722</v>
+        <v>1.047288672129371</v>
       </c>
       <c r="L3">
-        <v>1.049768819071493</v>
+        <v>1.034343741750227</v>
       </c>
       <c r="M3">
-        <v>1.068814024793741</v>
+        <v>1.053083199309022</v>
       </c>
       <c r="N3">
-        <v>1.060193663439265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.017172695443651</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.050584112764233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042991413397067</v>
+        <v>1.023318576928273</v>
       </c>
       <c r="D4">
-        <v>1.05691198290139</v>
+        <v>1.038918751772384</v>
       </c>
       <c r="E4">
-        <v>1.042752399488853</v>
+        <v>1.026052050023007</v>
       </c>
       <c r="F4">
-        <v>1.062229888889488</v>
+        <v>1.044770933684854</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.062311258031225</v>
+        <v>1.052374258419827</v>
       </c>
       <c r="J4">
-        <v>1.061355853970291</v>
+        <v>1.042144032082509</v>
       </c>
       <c r="K4">
-        <v>1.066368827398007</v>
+        <v>1.048569100512174</v>
       </c>
       <c r="L4">
-        <v>1.052360833194487</v>
+        <v>1.035845897506765</v>
       </c>
       <c r="M4">
-        <v>1.071631076259838</v>
+        <v>1.054357449468832</v>
       </c>
       <c r="N4">
-        <v>1.062863101022147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01767081018153</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.051592581796753</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.044557916454929</v>
+        <v>1.024383708365687</v>
       </c>
       <c r="D5">
-        <v>1.058164111270903</v>
+        <v>1.03967223575779</v>
       </c>
       <c r="E5">
-        <v>1.044053117407288</v>
+        <v>1.026903293623067</v>
       </c>
       <c r="F5">
-        <v>1.063619205184493</v>
+        <v>1.045520811688579</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062895530726883</v>
+        <v>1.052661948588466</v>
       </c>
       <c r="J5">
-        <v>1.062460474859934</v>
+        <v>1.042744685552022</v>
       </c>
       <c r="K5">
-        <v>1.067399502042447</v>
+        <v>1.049101112303693</v>
       </c>
       <c r="L5">
-        <v>1.053435397756666</v>
+        <v>1.036470769994251</v>
       </c>
       <c r="M5">
-        <v>1.072799082713997</v>
+        <v>1.054887588059401</v>
       </c>
       <c r="N5">
-        <v>1.063969290600155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.017877744149205</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.052012144500599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.044819713111383</v>
+        <v>1.024561906423252</v>
       </c>
       <c r="D6">
-        <v>1.058373403335943</v>
+        <v>1.039798338530618</v>
       </c>
       <c r="E6">
-        <v>1.044270562214855</v>
+        <v>1.027045781463111</v>
       </c>
       <c r="F6">
-        <v>1.063851459672995</v>
+        <v>1.045646353138937</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062993038832526</v>
+        <v>1.052709965663315</v>
       </c>
       <c r="J6">
-        <v>1.062645025143158</v>
+        <v>1.042845137989858</v>
       </c>
       <c r="K6">
-        <v>1.06757168664941</v>
+        <v>1.049190075422543</v>
       </c>
       <c r="L6">
-        <v>1.053614953299358</v>
+        <v>1.036575304793361</v>
       </c>
       <c r="M6">
-        <v>1.072994260740584</v>
+        <v>1.054976278797651</v>
       </c>
       <c r="N6">
-        <v>1.064154102965949</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.017912345880475</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.05208233617213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043012427836508</v>
+        <v>1.023332852509083</v>
       </c>
       <c r="D7">
-        <v>1.056928777702265</v>
+        <v>1.038928847482762</v>
       </c>
       <c r="E7">
-        <v>1.042769843938742</v>
+        <v>1.026063453978747</v>
       </c>
       <c r="F7">
-        <v>1.062248521674708</v>
+        <v>1.044780978245914</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.062319105129107</v>
+        <v>1.05237812186131</v>
       </c>
       <c r="J7">
-        <v>1.061370676045946</v>
+        <v>1.042152084947077</v>
       </c>
       <c r="K7">
-        <v>1.066382658004517</v>
+        <v>1.048576233760706</v>
       </c>
       <c r="L7">
-        <v>1.052375250160763</v>
+        <v>1.035854272921916</v>
       </c>
       <c r="M7">
-        <v>1.071646746308994</v>
+        <v>1.054364554857175</v>
       </c>
       <c r="N7">
-        <v>1.062877944146849</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.017673584886488</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.051598205150382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035274134400364</v>
+        <v>1.018100289223457</v>
       </c>
       <c r="D8">
-        <v>1.050748789381586</v>
+        <v>1.035233818343738</v>
       </c>
       <c r="E8">
-        <v>1.036354420872778</v>
+        <v>1.021892338294335</v>
       </c>
       <c r="F8">
-        <v>1.055395871292114</v>
+        <v>1.041109638051728</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059413675330552</v>
+        <v>1.050948847678917</v>
       </c>
       <c r="J8">
-        <v>1.055906345174584</v>
+        <v>1.039196159259666</v>
       </c>
       <c r="K8">
-        <v>1.061282565329077</v>
+        <v>1.045956773106273</v>
       </c>
       <c r="L8">
-        <v>1.047063475510251</v>
+        <v>1.032783709762576</v>
       </c>
       <c r="M8">
-        <v>1.065874325356158</v>
+        <v>1.051760122278661</v>
       </c>
       <c r="N8">
-        <v>1.057405853298883</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.016654455260881</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.049536999654708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.020873811721499</v>
+        <v>1.008496253945973</v>
       </c>
       <c r="D9">
-        <v>1.039274309118925</v>
+        <v>1.028480780876475</v>
       </c>
       <c r="E9">
-        <v>1.024459733903026</v>
+        <v>1.014281341615999</v>
       </c>
       <c r="F9">
-        <v>1.042689403858577</v>
+        <v>1.034423784719201</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053933535984017</v>
+        <v>1.048264670535953</v>
       </c>
       <c r="J9">
-        <v>1.045710399150199</v>
+        <v>1.033752514190662</v>
       </c>
       <c r="K9">
-        <v>1.051760777794782</v>
+        <v>1.041128079741231</v>
       </c>
       <c r="L9">
-        <v>1.037168053512931</v>
+        <v>1.027146886762595</v>
       </c>
       <c r="M9">
-        <v>1.055125865298462</v>
+        <v>1.046982001196204</v>
       </c>
       <c r="N9">
-        <v>1.047195427861652</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.01477486407908</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.045755474179378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.010685760223289</v>
+        <v>1.001881147068553</v>
       </c>
       <c r="D10">
-        <v>1.031178871827807</v>
+        <v>1.023877973045312</v>
       </c>
       <c r="E10">
-        <v>1.01607882831381</v>
+        <v>1.009080343861958</v>
       </c>
       <c r="F10">
-        <v>1.033735592778986</v>
+        <v>1.029931041878621</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050009714868036</v>
+        <v>1.046403906868187</v>
       </c>
       <c r="J10">
-        <v>1.038481736819424</v>
+        <v>1.03002032777055</v>
       </c>
       <c r="K10">
-        <v>1.045007111935548</v>
+        <v>1.037829083815477</v>
       </c>
       <c r="L10">
-        <v>1.030163718824052</v>
+        <v>1.023287562753967</v>
       </c>
       <c r="M10">
-        <v>1.047521332711124</v>
+        <v>1.043780123312337</v>
       </c>
       <c r="N10">
-        <v>1.039956500001228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.013492063667814</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.043272557310138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.006116276446451</v>
+        <v>0.9995105073016812</v>
       </c>
       <c r="D11">
-        <v>1.027554548836541</v>
+        <v>1.022445053425072</v>
       </c>
       <c r="E11">
-        <v>1.012329193641121</v>
+        <v>1.007297850248211</v>
       </c>
       <c r="F11">
-        <v>1.029729380785599</v>
+        <v>1.028920480868428</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048239501913318</v>
+        <v>1.04594527804923</v>
       </c>
       <c r="J11">
-        <v>1.035236806332049</v>
+        <v>1.028903663930242</v>
       </c>
       <c r="K11">
-        <v>1.041974885487885</v>
+        <v>1.036955748935468</v>
       </c>
       <c r="L11">
-        <v>1.02702228566086</v>
+        <v>1.022083439727334</v>
       </c>
       <c r="M11">
-        <v>1.044111609018726</v>
+        <v>1.043316858645723</v>
       </c>
       <c r="N11">
-        <v>1.036706961340362</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013172708137848</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.043339711991125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.004393473442692</v>
+        <v>0.9988359282050921</v>
       </c>
       <c r="D12">
-        <v>1.0261891979495</v>
+        <v>1.022135592863555</v>
       </c>
       <c r="E12">
-        <v>1.010916999256848</v>
+        <v>1.006828771807802</v>
       </c>
       <c r="F12">
-        <v>1.028220511814937</v>
+        <v>1.028900949271143</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047570608634115</v>
+        <v>1.045915185754803</v>
       </c>
       <c r="J12">
-        <v>1.034013050494852</v>
+        <v>1.028689635477196</v>
       </c>
       <c r="K12">
-        <v>1.040831284966066</v>
+        <v>1.036850651913577</v>
       </c>
       <c r="L12">
-        <v>1.025837993490521</v>
+        <v>1.021826302391459</v>
       </c>
       <c r="M12">
-        <v>1.042826312513668</v>
+        <v>1.043494636571603</v>
       </c>
       <c r="N12">
-        <v>1.03548146762951</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013152914490965</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.043805028375002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.004764204245314</v>
+        <v>0.9994243489159943</v>
       </c>
       <c r="D13">
-        <v>1.026482956676997</v>
+        <v>1.022672884452242</v>
       </c>
       <c r="E13">
-        <v>1.011220820231343</v>
+        <v>1.007338876634452</v>
       </c>
       <c r="F13">
-        <v>1.028545133406955</v>
+        <v>1.029655290995319</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047714613817689</v>
+        <v>1.046218260879938</v>
       </c>
       <c r="J13">
-        <v>1.034276405195453</v>
+        <v>1.029160381087799</v>
       </c>
       <c r="K13">
-        <v>1.041077392574647</v>
+        <v>1.037335607400535</v>
       </c>
       <c r="L13">
-        <v>1.026092835831254</v>
+        <v>1.022283246834218</v>
       </c>
       <c r="M13">
-        <v>1.043102883171255</v>
+        <v>1.044193369975255</v>
       </c>
       <c r="N13">
-        <v>1.035745196323993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.013363498018731</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.04463286151409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.005974399834036</v>
+        <v>1.000405636412463</v>
       </c>
       <c r="D14">
-        <v>1.027442086085794</v>
+        <v>1.023429568388897</v>
       </c>
       <c r="E14">
-        <v>1.012212865108559</v>
+        <v>1.00813701961609</v>
       </c>
       <c r="F14">
-        <v>1.029605089621562</v>
+        <v>1.030530794296549</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048184446738633</v>
+        <v>1.046579148314117</v>
       </c>
       <c r="J14">
-        <v>1.035136033806835</v>
+        <v>1.02979718012065</v>
       </c>
       <c r="K14">
-        <v>1.041880714652529</v>
+        <v>1.037939170152827</v>
       </c>
       <c r="L14">
-        <v>1.026924754008414</v>
+        <v>1.022923867748361</v>
       </c>
       <c r="M14">
-        <v>1.044005756373479</v>
+        <v>1.044915277523654</v>
       </c>
       <c r="N14">
-        <v>1.036606045706603</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.013614012193687</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.045376097243266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.00671660772411</v>
+        <v>1.000922679061633</v>
       </c>
       <c r="D15">
-        <v>1.028030465071577</v>
+        <v>1.023803864119421</v>
       </c>
       <c r="E15">
-        <v>1.012821483714675</v>
+        <v>1.008547938105571</v>
       </c>
       <c r="F15">
-        <v>1.03025536614767</v>
+        <v>1.030925720876829</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.0484724004053</v>
+        <v>1.046743185789253</v>
       </c>
       <c r="J15">
-        <v>1.035663197947944</v>
+        <v>1.030106266940619</v>
       </c>
       <c r="K15">
-        <v>1.042373341445256</v>
+        <v>1.038220900755201</v>
       </c>
       <c r="L15">
-        <v>1.027434982052627</v>
+        <v>1.023239391244849</v>
       </c>
       <c r="M15">
-        <v>1.044559520616294</v>
+        <v>1.045218250969779</v>
       </c>
       <c r="N15">
-        <v>1.037133958481259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.013726940118022</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.04565295526432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.01098554698146</v>
+        <v>1.00360895175863</v>
       </c>
       <c r="D16">
-        <v>1.031416796454829</v>
+        <v>1.025651268939523</v>
       </c>
       <c r="E16">
-        <v>1.016325030158743</v>
+        <v>1.0106441707009</v>
       </c>
       <c r="F16">
-        <v>1.033998635912468</v>
+        <v>1.032711419662111</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050125643234299</v>
+        <v>1.047486161531996</v>
       </c>
       <c r="J16">
-        <v>1.038694573242586</v>
+        <v>1.031603781330464</v>
       </c>
       <c r="K16">
-        <v>1.045205987578721</v>
+        <v>1.039536963692606</v>
       </c>
       <c r="L16">
-        <v>1.030369825854631</v>
+        <v>1.024787743327499</v>
       </c>
       <c r="M16">
-        <v>1.047745061041679</v>
+        <v>1.04647913203605</v>
       </c>
       <c r="N16">
-        <v>1.040169638676524</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.014231684005698</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.046611003019045</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.013619852885332</v>
+        <v>1.005156488951338</v>
       </c>
       <c r="D17">
-        <v>1.033508263884722</v>
+        <v>1.026672537917036</v>
       </c>
       <c r="E17">
-        <v>1.018489539809451</v>
+        <v>1.011836313155485</v>
       </c>
       <c r="F17">
-        <v>1.036311177835566</v>
+        <v>1.033618078542315</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051143173910109</v>
+        <v>1.047864527868809</v>
       </c>
       <c r="J17">
-        <v>1.040564517516952</v>
+        <v>1.03241794297825</v>
       </c>
       <c r="K17">
-        <v>1.046953217718263</v>
+        <v>1.040228522984072</v>
       </c>
       <c r="L17">
-        <v>1.032180965171716</v>
+        <v>1.025639943641079</v>
       </c>
       <c r="M17">
-        <v>1.049711147458438</v>
+        <v>1.047061264058984</v>
       </c>
       <c r="N17">
-        <v>1.042042238486244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.014487084509929</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.046942689819387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.015141282467289</v>
+        <v>1.005861055418794</v>
       </c>
       <c r="D18">
-        <v>1.034716795025086</v>
+        <v>1.027059363922725</v>
       </c>
       <c r="E18">
-        <v>1.019740514027089</v>
+        <v>1.012350463743009</v>
       </c>
       <c r="F18">
-        <v>1.037647682800898</v>
+        <v>1.03380949940716</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051729863280944</v>
+        <v>1.047953597929624</v>
       </c>
       <c r="J18">
-        <v>1.041644226695315</v>
+        <v>1.032704453227232</v>
       </c>
       <c r="K18">
-        <v>1.047962021198897</v>
+        <v>1.040426810866857</v>
       </c>
       <c r="L18">
-        <v>1.033226983573858</v>
+        <v>1.02595936388423</v>
       </c>
       <c r="M18">
-        <v>1.050846739605007</v>
+        <v>1.047069085885684</v>
       </c>
       <c r="N18">
-        <v>1.043123480975485</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.014545313647091</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.04671241468747</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.01565753725861</v>
+        <v>1.005797078654191</v>
       </c>
       <c r="D19">
-        <v>1.035126977540399</v>
+        <v>1.026865419258482</v>
       </c>
       <c r="E19">
-        <v>1.020165142383459</v>
+        <v>1.012246458617108</v>
       </c>
       <c r="F19">
-        <v>1.038101339539956</v>
+        <v>1.033342798187574</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051928771742162</v>
+        <v>1.047780142018834</v>
       </c>
       <c r="J19">
-        <v>1.042010548441898</v>
+        <v>1.03250949635386</v>
       </c>
       <c r="K19">
-        <v>1.048304277172968</v>
+        <v>1.040173845723854</v>
       </c>
       <c r="L19">
-        <v>1.033581919111557</v>
+        <v>1.025793670150672</v>
       </c>
       <c r="M19">
-        <v>1.05123208357583</v>
+        <v>1.046548188943898</v>
       </c>
       <c r="N19">
-        <v>1.043490322940966</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.014427263505309</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.045976921768412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.013338792521463</v>
+        <v>1.003597819327882</v>
       </c>
       <c r="D20">
-        <v>1.033285055608385</v>
+        <v>1.025071848038426</v>
       </c>
       <c r="E20">
-        <v>1.018258511755797</v>
+        <v>1.010427897158809</v>
       </c>
       <c r="F20">
-        <v>1.036064352154385</v>
+        <v>1.031097684873687</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051034712429903</v>
+        <v>1.046890717824462</v>
       </c>
       <c r="J20">
-        <v>1.040365035950191</v>
+        <v>1.030990752118118</v>
       </c>
       <c r="K20">
-        <v>1.046766832138662</v>
+        <v>1.038687714289607</v>
       </c>
       <c r="L20">
-        <v>1.031987729367812</v>
+        <v>1.024289829811384</v>
       </c>
       <c r="M20">
-        <v>1.049501371092241</v>
+        <v>1.044614904594666</v>
       </c>
       <c r="N20">
-        <v>1.041842473632778</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.01382601369744</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.043922706467355</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.005618746104078</v>
+        <v>0.9985218553339741</v>
       </c>
       <c r="D21">
-        <v>1.02716018466845</v>
+        <v>1.021508260636065</v>
       </c>
       <c r="E21">
-        <v>1.01192127946279</v>
+        <v>1.006435534761438</v>
       </c>
       <c r="F21">
-        <v>1.029293544393846</v>
+        <v>1.027549564341185</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048046411825099</v>
+        <v>1.045408898595205</v>
       </c>
       <c r="J21">
-        <v>1.034883413847534</v>
+        <v>1.028081507430773</v>
       </c>
       <c r="K21">
-        <v>1.041644643102041</v>
+        <v>1.036093296680858</v>
       </c>
       <c r="L21">
-        <v>1.026680265370336</v>
+        <v>1.021296001154754</v>
       </c>
       <c r="M21">
-        <v>1.043740411235554</v>
+        <v>1.042027146477541</v>
       </c>
       <c r="N21">
-        <v>1.036353066997984</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012814031648697</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.041834056688147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.000616351148887</v>
+        <v>0.9952981978419247</v>
       </c>
       <c r="D22">
-        <v>1.02319793075846</v>
+        <v>1.019263969964716</v>
       </c>
       <c r="E22">
-        <v>1.00782376262283</v>
+        <v>1.003912212308896</v>
       </c>
       <c r="F22">
-        <v>1.024915440761376</v>
+        <v>1.025342611244803</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046101461883546</v>
+        <v>1.044473648524763</v>
       </c>
       <c r="J22">
-        <v>1.031329515618197</v>
+        <v>1.026246153845115</v>
       </c>
       <c r="K22">
-        <v>1.038323426611534</v>
+        <v>1.034463225669165</v>
       </c>
       <c r="L22">
-        <v>1.023241806388212</v>
+        <v>1.019406563871288</v>
       </c>
       <c r="M22">
-        <v>1.040008965735174</v>
+        <v>1.040428206272309</v>
       </c>
       <c r="N22">
-        <v>1.032794121825524</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.012179006723602</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.040568603950813</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.003282923609305</v>
+        <v>0.9970136229343689</v>
       </c>
       <c r="D23">
-        <v>1.025309394378499</v>
+        <v>1.020457671974852</v>
       </c>
       <c r="E23">
-        <v>1.010007111839831</v>
+        <v>1.005254219773598</v>
       </c>
       <c r="F23">
-        <v>1.02724832401712</v>
+        <v>1.026516123062816</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047139019676095</v>
+        <v>1.04497200757178</v>
       </c>
       <c r="J23">
-        <v>1.033224109493466</v>
+        <v>1.027222930829295</v>
       </c>
       <c r="K23">
-        <v>1.040094004044802</v>
+        <v>1.035330779853199</v>
       </c>
       <c r="L23">
-        <v>1.025074617516731</v>
+        <v>1.020411886715132</v>
       </c>
       <c r="M23">
-        <v>1.041997870409119</v>
+        <v>1.041278890213876</v>
       </c>
       <c r="N23">
-        <v>1.034691406241408</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012516988904915</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.041241862875696</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.01346583818638</v>
+        <v>1.003626112059719</v>
       </c>
       <c r="D24">
-        <v>1.033385948916206</v>
+        <v>1.025071041796151</v>
       </c>
       <c r="E24">
-        <v>1.018362938979548</v>
+        <v>1.010443205358772</v>
       </c>
       <c r="F24">
-        <v>1.036175920154603</v>
+        <v>1.031058664593542</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051083742527926</v>
+        <v>1.046877972320298</v>
       </c>
       <c r="J24">
-        <v>1.040455206982166</v>
+        <v>1.030985288757444</v>
       </c>
       <c r="K24">
-        <v>1.046851083589779</v>
+        <v>1.03867173613613</v>
       </c>
       <c r="L24">
-        <v>1.032075076330716</v>
+        <v>1.024289375467455</v>
       </c>
       <c r="M24">
-        <v>1.049596194502305</v>
+        <v>1.044561458494853</v>
       </c>
       <c r="N24">
-        <v>1.041932772717961</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.013818337052989</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.043839788255588</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024694446897158</v>
+        <v>1.011027014218893</v>
       </c>
       <c r="D25">
-        <v>1.042315171889728</v>
+        <v>1.030256581081274</v>
       </c>
       <c r="E25">
-        <v>1.027610032990198</v>
+        <v>1.016281426360131</v>
       </c>
       <c r="F25">
-        <v>1.046054850283809</v>
+        <v>1.036179100082688</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055395738652584</v>
+        <v>1.048978867434568</v>
       </c>
       <c r="J25">
-        <v>1.048418395974668</v>
+        <v>1.035188889952622</v>
       </c>
       <c r="K25">
-        <v>1.05429028502916</v>
+        <v>1.042402681734592</v>
       </c>
       <c r="L25">
-        <v>1.03979434159223</v>
+        <v>1.028632144444842</v>
       </c>
       <c r="M25">
-        <v>1.057977945915269</v>
+        <v>1.048240592172856</v>
       </c>
       <c r="N25">
-        <v>1.049907270352223</v>
+        <v>1.015271112794648</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.046751556683239</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_31/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016728031444747</v>
+        <v>1.015579612760173</v>
       </c>
       <c r="D2">
-        <v>1.034266606922278</v>
+        <v>1.032538590540633</v>
       </c>
       <c r="E2">
-        <v>1.020801350307002</v>
+        <v>1.019832734548968</v>
       </c>
       <c r="F2">
-        <v>1.040150216546736</v>
+        <v>1.038956705130153</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.050569880400765</v>
+        <v>1.049782641069666</v>
       </c>
       <c r="J2">
-        <v>1.038419667657149</v>
+        <v>1.037304120131885</v>
       </c>
       <c r="K2">
-        <v>1.045268335215058</v>
+        <v>1.043562485665932</v>
       </c>
       <c r="L2">
-        <v>1.031978300512633</v>
+        <v>1.031022513065107</v>
       </c>
       <c r="M2">
-        <v>1.05107715972471</v>
+        <v>1.049898733253376</v>
       </c>
       <c r="N2">
-        <v>1.016386546833452</v>
+        <v>1.016874493334393</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.04899648705508</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.048063851754162</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02351860671108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020758509390477</v>
+        <v>1.019381968281837</v>
       </c>
       <c r="D3">
-        <v>1.037109578873834</v>
+        <v>1.03511249557456</v>
       </c>
       <c r="E3">
-        <v>1.024009115292254</v>
+        <v>1.022838728186071</v>
       </c>
       <c r="F3">
-        <v>1.042972144969807</v>
+        <v>1.041583331224388</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.051678169564828</v>
+        <v>1.05074798551662</v>
       </c>
       <c r="J3">
-        <v>1.040698839733324</v>
+        <v>1.039357853329875</v>
       </c>
       <c r="K3">
-        <v>1.047288672129371</v>
+        <v>1.045314984073492</v>
       </c>
       <c r="L3">
-        <v>1.034343741750227</v>
+        <v>1.033187490581462</v>
       </c>
       <c r="M3">
-        <v>1.053083199309022</v>
+        <v>1.05171041811798</v>
       </c>
       <c r="N3">
-        <v>1.017172695443651</v>
+        <v>1.01743563906666</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.050584112764233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.049497662628242</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023894233867597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023318576928273</v>
+        <v>1.021798848482672</v>
       </c>
       <c r="D4">
-        <v>1.038918751772384</v>
+        <v>1.036751909072978</v>
       </c>
       <c r="E4">
-        <v>1.026052050023007</v>
+        <v>1.024754890014108</v>
       </c>
       <c r="F4">
-        <v>1.044770933684854</v>
+        <v>1.04325912052038</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052374258419827</v>
+        <v>1.0513538775171</v>
       </c>
       <c r="J4">
-        <v>1.042144032082509</v>
+        <v>1.040660909768882</v>
       </c>
       <c r="K4">
-        <v>1.048569100512174</v>
+        <v>1.046426117415625</v>
       </c>
       <c r="L4">
-        <v>1.035845897506765</v>
+        <v>1.034563450868265</v>
       </c>
       <c r="M4">
-        <v>1.054357449468832</v>
+        <v>1.052862042295839</v>
       </c>
       <c r="N4">
-        <v>1.01767081018153</v>
+        <v>1.017791494855232</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.051592581796753</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.05040908420037</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02412984923307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024383708365687</v>
+        <v>1.022804792794834</v>
       </c>
       <c r="D5">
-        <v>1.03967223575779</v>
+        <v>1.03743502561268</v>
       </c>
       <c r="E5">
-        <v>1.026903293623067</v>
+        <v>1.025553707057266</v>
       </c>
       <c r="F5">
-        <v>1.045520811688579</v>
+        <v>1.043958064063988</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.052661948588466</v>
+        <v>1.051604178800347</v>
       </c>
       <c r="J5">
-        <v>1.042744685552022</v>
+        <v>1.041202669745431</v>
       </c>
       <c r="K5">
-        <v>1.049101112303693</v>
+        <v>1.046887883703919</v>
       </c>
       <c r="L5">
-        <v>1.036470769994251</v>
+        <v>1.035136080305612</v>
       </c>
       <c r="M5">
-        <v>1.054887588059401</v>
+        <v>1.053341350347468</v>
       </c>
       <c r="N5">
-        <v>1.017877744149205</v>
+        <v>1.017939399906838</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.052012144500599</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.050788419168114</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024227150477025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024561906423252</v>
+        <v>1.022973110829031</v>
       </c>
       <c r="D6">
-        <v>1.039798338530618</v>
+        <v>1.037549370839174</v>
       </c>
       <c r="E6">
-        <v>1.027045781463111</v>
+        <v>1.025687442131737</v>
       </c>
       <c r="F6">
-        <v>1.045646353138937</v>
+        <v>1.044075097873648</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.052709965663315</v>
+        <v>1.051645948618507</v>
       </c>
       <c r="J6">
-        <v>1.042845137989858</v>
+        <v>1.041293283194018</v>
       </c>
       <c r="K6">
-        <v>1.049190075422543</v>
+        <v>1.04696510561885</v>
       </c>
       <c r="L6">
-        <v>1.036575304793361</v>
+        <v>1.035231889818714</v>
       </c>
       <c r="M6">
-        <v>1.054976278797651</v>
+        <v>1.05342154790307</v>
       </c>
       <c r="N6">
-        <v>1.017912345880475</v>
+        <v>1.017964135374894</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.05208233617213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.050851889264346</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024243385922163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023332852509083</v>
+        <v>1.021821777748071</v>
       </c>
       <c r="D7">
-        <v>1.038928847482762</v>
+        <v>1.03676831501744</v>
       </c>
       <c r="E7">
-        <v>1.026063453978747</v>
+        <v>1.024774208127963</v>
       </c>
       <c r="F7">
-        <v>1.044780978245914</v>
+        <v>1.043274429844964</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.05237812186131</v>
+        <v>1.051362108748001</v>
       </c>
       <c r="J7">
-        <v>1.042152084947077</v>
+        <v>1.040677392856534</v>
       </c>
       <c r="K7">
-        <v>1.048576233760706</v>
+        <v>1.046439482752505</v>
       </c>
       <c r="L7">
-        <v>1.035854272921916</v>
+        <v>1.034579645251087</v>
       </c>
       <c r="M7">
-        <v>1.054364554857175</v>
+        <v>1.052874349397183</v>
       </c>
       <c r="N7">
-        <v>1.017673584886488</v>
+        <v>1.017822111030981</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.051598205150382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.050418824314331</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024133479220985</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018100289223457</v>
+        <v>1.016903009274743</v>
       </c>
       <c r="D8">
-        <v>1.035233818343738</v>
+        <v>1.033436446140896</v>
       </c>
       <c r="E8">
-        <v>1.021892338294335</v>
+        <v>1.020881406553897</v>
       </c>
       <c r="F8">
-        <v>1.041109638051728</v>
+        <v>1.039867854470905</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050948847678917</v>
+        <v>1.050127930762499</v>
       </c>
       <c r="J8">
-        <v>1.039196159259666</v>
+        <v>1.038032000398481</v>
       </c>
       <c r="K8">
-        <v>1.045956773106273</v>
+        <v>1.044181774225579</v>
       </c>
       <c r="L8">
-        <v>1.032783709762576</v>
+        <v>1.031785763873347</v>
       </c>
       <c r="M8">
-        <v>1.051760122278661</v>
+        <v>1.050533569562465</v>
       </c>
       <c r="N8">
-        <v>1.016654455260881</v>
+        <v>1.017152901409873</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.049536999654708</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.048566276757403</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023654375059911</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.008496253945973</v>
+        <v>1.007857945791064</v>
       </c>
       <c r="D9">
-        <v>1.028480780876475</v>
+        <v>1.027335330404842</v>
       </c>
       <c r="E9">
-        <v>1.014281341615999</v>
+        <v>1.013764035939291</v>
       </c>
       <c r="F9">
-        <v>1.034423784719201</v>
+        <v>1.033656936484378</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048264670535953</v>
+        <v>1.047790500878526</v>
       </c>
       <c r="J9">
-        <v>1.033752514190662</v>
+        <v>1.033136238948102</v>
       </c>
       <c r="K9">
-        <v>1.041128079741231</v>
+        <v>1.039999949876389</v>
       </c>
       <c r="L9">
-        <v>1.027146886762595</v>
+        <v>1.026637679728438</v>
       </c>
       <c r="M9">
-        <v>1.046982001196204</v>
+        <v>1.046226574391474</v>
       </c>
       <c r="N9">
-        <v>1.01477486407908</v>
+        <v>1.015824119651036</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.045755474179378</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.04515760858765</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022744307575135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.001881147068553</v>
+        <v>1.00167586590795</v>
       </c>
       <c r="D10">
-        <v>1.023877973045312</v>
+        <v>1.023215898659143</v>
       </c>
       <c r="E10">
-        <v>1.009080343861958</v>
+        <v>1.008945238101544</v>
       </c>
       <c r="F10">
-        <v>1.029931041878621</v>
+        <v>1.029520642526626</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046403906868187</v>
+        <v>1.046190550586596</v>
       </c>
       <c r="J10">
-        <v>1.03002032777055</v>
+        <v>1.029823150379253</v>
       </c>
       <c r="K10">
-        <v>1.037829083815477</v>
+        <v>1.037178263792256</v>
       </c>
       <c r="L10">
-        <v>1.023287562753967</v>
+        <v>1.023154840193003</v>
       </c>
       <c r="M10">
-        <v>1.043780123312337</v>
+        <v>1.043376592703128</v>
       </c>
       <c r="N10">
-        <v>1.013492063667814</v>
+        <v>1.015041540818065</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.043272557310138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.042953210728378</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022127600597136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9995105073016812</v>
+        <v>0.9994796871344087</v>
       </c>
       <c r="D11">
-        <v>1.022445053425072</v>
+        <v>1.021958701488193</v>
       </c>
       <c r="E11">
-        <v>1.007297850248211</v>
+        <v>1.00731470009816</v>
       </c>
       <c r="F11">
-        <v>1.028920480868428</v>
+        <v>1.028643027470585</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04594527804923</v>
+        <v>1.045827023867638</v>
       </c>
       <c r="J11">
-        <v>1.028903663930242</v>
+        <v>1.028874127761498</v>
       </c>
       <c r="K11">
-        <v>1.036955748935468</v>
+        <v>1.036478059023811</v>
       </c>
       <c r="L11">
-        <v>1.022083439727334</v>
+        <v>1.022099977795021</v>
       </c>
       <c r="M11">
-        <v>1.043316858645723</v>
+        <v>1.043044265195016</v>
       </c>
       <c r="N11">
-        <v>1.013172708137848</v>
+        <v>1.01505853897065</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.043339711991125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.043124093919858</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022031414761994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9988359282050921</v>
+        <v>0.9988412623389731</v>
       </c>
       <c r="D12">
-        <v>1.022135592863555</v>
+        <v>1.021682713517047</v>
       </c>
       <c r="E12">
-        <v>1.006828771807802</v>
+        <v>1.0068746974808</v>
       </c>
       <c r="F12">
-        <v>1.028900949271143</v>
+        <v>1.028649151828917</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045915185754803</v>
+        <v>1.045812351569297</v>
       </c>
       <c r="J12">
-        <v>1.028689635477196</v>
+        <v>1.028694743112067</v>
       </c>
       <c r="K12">
-        <v>1.036850651913577</v>
+        <v>1.036405971961877</v>
       </c>
       <c r="L12">
-        <v>1.021826302391459</v>
+        <v>1.021871363773773</v>
       </c>
       <c r="M12">
-        <v>1.043494636571603</v>
+        <v>1.04324731929578</v>
       </c>
       <c r="N12">
-        <v>1.013152914490965</v>
+        <v>1.015148481927946</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.043805028375002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.043609468988571</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022058466070095</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9994243489159943</v>
+        <v>0.9993476657831405</v>
       </c>
       <c r="D13">
-        <v>1.022672884452242</v>
+        <v>1.022135253200598</v>
       </c>
       <c r="E13">
-        <v>1.007338876634452</v>
+        <v>1.007308757649458</v>
       </c>
       <c r="F13">
-        <v>1.029655290995319</v>
+        <v>1.029339446962277</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046218260879938</v>
+        <v>1.046063697461558</v>
       </c>
       <c r="J13">
-        <v>1.029160381087799</v>
+        <v>1.029086937113309</v>
       </c>
       <c r="K13">
-        <v>1.037335607400535</v>
+        <v>1.036807665269057</v>
       </c>
       <c r="L13">
-        <v>1.022283246834218</v>
+        <v>1.022253692076123</v>
       </c>
       <c r="M13">
-        <v>1.044193369975255</v>
+        <v>1.043883116752758</v>
       </c>
       <c r="N13">
-        <v>1.013363498018731</v>
+        <v>1.015264021758781</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.04463286151409</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.044387598336214</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022181322083407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000405636412463</v>
+        <v>1.000219415783997</v>
       </c>
       <c r="D14">
-        <v>1.023429568388897</v>
+        <v>1.022780464064893</v>
       </c>
       <c r="E14">
-        <v>1.00813701961609</v>
+        <v>1.008007567827048</v>
       </c>
       <c r="F14">
-        <v>1.030530794296549</v>
+        <v>1.030130643714695</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046579148314117</v>
+        <v>1.046359048199453</v>
       </c>
       <c r="J14">
-        <v>1.02979718012065</v>
+        <v>1.029618710666663</v>
       </c>
       <c r="K14">
-        <v>1.037939170152827</v>
+        <v>1.037301615075577</v>
       </c>
       <c r="L14">
-        <v>1.022923867748361</v>
+        <v>1.022796809666918</v>
       </c>
       <c r="M14">
-        <v>1.044915277523654</v>
+        <v>1.044522117905244</v>
       </c>
       <c r="N14">
-        <v>1.013614012193687</v>
+        <v>1.01535721710472</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.045376097243266</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.045065336059562</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022310276045481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.000922679061633</v>
+        <v>1.000684703198467</v>
       </c>
       <c r="D15">
-        <v>1.023803864119421</v>
+        <v>1.023102234748521</v>
       </c>
       <c r="E15">
-        <v>1.008547938105571</v>
+        <v>1.00837213788392</v>
       </c>
       <c r="F15">
-        <v>1.030925720876829</v>
+        <v>1.03048588859768</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046743185789253</v>
+        <v>1.046492921672799</v>
       </c>
       <c r="J15">
-        <v>1.030106266940619</v>
+        <v>1.029878108778848</v>
       </c>
       <c r="K15">
-        <v>1.038220900755201</v>
+        <v>1.037531659132092</v>
       </c>
       <c r="L15">
-        <v>1.023239391244849</v>
+        <v>1.023066816268607</v>
       </c>
       <c r="M15">
-        <v>1.045218250969779</v>
+        <v>1.044786043452839</v>
       </c>
       <c r="N15">
-        <v>1.013726940118022</v>
+        <v>1.015389930614936</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.04565295526432</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.045311338777057</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022364669902911</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.00360895175863</v>
+        <v>1.003138902120299</v>
       </c>
       <c r="D16">
-        <v>1.025651268939523</v>
+        <v>1.024711628457326</v>
       </c>
       <c r="E16">
-        <v>1.0106441707009</v>
+        <v>1.010263336500366</v>
       </c>
       <c r="F16">
-        <v>1.032711419662111</v>
+        <v>1.032092604422168</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047486161531996</v>
+        <v>1.047103336549214</v>
       </c>
       <c r="J16">
-        <v>1.031603781330464</v>
+        <v>1.031152145116807</v>
       </c>
       <c r="K16">
-        <v>1.039536963692606</v>
+        <v>1.038613183731441</v>
       </c>
       <c r="L16">
-        <v>1.024787743327499</v>
+        <v>1.024413582427478</v>
       </c>
       <c r="M16">
-        <v>1.04647913203605</v>
+        <v>1.045870574740268</v>
       </c>
       <c r="N16">
-        <v>1.014231684005698</v>
+        <v>1.015520885540007</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.046611003019045</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.04612998611946</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022593035483474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.005156488951338</v>
+        <v>1.00457682221721</v>
       </c>
       <c r="D17">
-        <v>1.026672537917036</v>
+        <v>1.02561701174542</v>
       </c>
       <c r="E17">
-        <v>1.011836313155485</v>
+        <v>1.01135990280855</v>
       </c>
       <c r="F17">
-        <v>1.033618078542315</v>
+        <v>1.032912908882112</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047864527868809</v>
+        <v>1.047419545618321</v>
       </c>
       <c r="J17">
-        <v>1.03241794297825</v>
+        <v>1.031860248992961</v>
       </c>
       <c r="K17">
-        <v>1.040228522984072</v>
+        <v>1.039190311137547</v>
       </c>
       <c r="L17">
-        <v>1.025639943641079</v>
+        <v>1.025171640986074</v>
       </c>
       <c r="M17">
-        <v>1.047061264058984</v>
+        <v>1.046367457961746</v>
       </c>
       <c r="N17">
-        <v>1.014487084509929</v>
+        <v>1.015602059865328</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.046942689819387</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.046394236168396</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022701803327009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005861055418794</v>
+        <v>1.005254532053057</v>
       </c>
       <c r="D18">
-        <v>1.027059363922725</v>
+        <v>1.02597350075732</v>
       </c>
       <c r="E18">
-        <v>1.012350463743009</v>
+        <v>1.011852541371231</v>
       </c>
       <c r="F18">
-        <v>1.03380949940716</v>
+        <v>1.033082148269879</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047953597929624</v>
+        <v>1.047495294045229</v>
       </c>
       <c r="J18">
-        <v>1.032704453227232</v>
+        <v>1.032120488754098</v>
       </c>
       <c r="K18">
-        <v>1.040426810866857</v>
+        <v>1.039358468814424</v>
       </c>
       <c r="L18">
-        <v>1.02595936388423</v>
+        <v>1.025469773447937</v>
       </c>
       <c r="M18">
-        <v>1.047069085885684</v>
+        <v>1.046353270299314</v>
       </c>
       <c r="N18">
-        <v>1.014545313647091</v>
+        <v>1.015604343518413</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.04671241468747</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.04614644569059</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022708939468518</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.005797078654191</v>
+        <v>1.005230546065715</v>
       </c>
       <c r="D19">
-        <v>1.026865419258482</v>
+        <v>1.025820687340215</v>
       </c>
       <c r="E19">
-        <v>1.012246458617108</v>
+        <v>1.011786682698669</v>
       </c>
       <c r="F19">
-        <v>1.033342798187574</v>
+        <v>1.032646393221993</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047780142018834</v>
+        <v>1.047348619529562</v>
       </c>
       <c r="J19">
-        <v>1.03250949635386</v>
+        <v>1.031963914786875</v>
       </c>
       <c r="K19">
-        <v>1.040173845723854</v>
+        <v>1.039145888687974</v>
       </c>
       <c r="L19">
-        <v>1.025793670150672</v>
+        <v>1.025341548338744</v>
       </c>
       <c r="M19">
-        <v>1.046548188943898</v>
+        <v>1.045862782292616</v>
       </c>
       <c r="N19">
-        <v>1.014427263505309</v>
+        <v>1.015515590948773</v>
       </c>
       <c r="O19">
-        <v>1.03</v>
+        <v>1.029999999999999</v>
       </c>
       <c r="P19">
-        <v>1.045976921768412</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.045434820856531</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022622470439947</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.003597819327882</v>
+        <v>1.003252430751516</v>
       </c>
       <c r="D20">
-        <v>1.025071848038426</v>
+        <v>1.024262783261552</v>
       </c>
       <c r="E20">
-        <v>1.010427897158809</v>
+        <v>1.01016825501019</v>
       </c>
       <c r="F20">
-        <v>1.031097684873687</v>
+        <v>1.030577074309423</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.046890717824462</v>
+        <v>1.046595283307905</v>
       </c>
       <c r="J20">
-        <v>1.030990752118118</v>
+        <v>1.030658549822809</v>
       </c>
       <c r="K20">
-        <v>1.038687714289607</v>
+        <v>1.037892008125535</v>
       </c>
       <c r="L20">
-        <v>1.024289829811384</v>
+        <v>1.024034633678412</v>
       </c>
       <c r="M20">
-        <v>1.044614904594666</v>
+        <v>1.044102758248841</v>
       </c>
       <c r="N20">
-        <v>1.01382601369744</v>
+        <v>1.015169181541413</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.043922706467355</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.043517398624352</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022282444856127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9985218553339741</v>
+        <v>0.9986531352479788</v>
       </c>
       <c r="D21">
-        <v>1.021508260636065</v>
+        <v>1.021184950814723</v>
       </c>
       <c r="E21">
-        <v>1.006435534761438</v>
+        <v>1.006601996164071</v>
       </c>
       <c r="F21">
-        <v>1.027549564341185</v>
+        <v>1.027396346531193</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045408898595205</v>
+        <v>1.04539049354869</v>
       </c>
       <c r="J21">
-        <v>1.028081507430773</v>
+        <v>1.028207276455251</v>
       </c>
       <c r="K21">
-        <v>1.036093296680858</v>
+        <v>1.035775783984568</v>
       </c>
       <c r="L21">
-        <v>1.021296001154754</v>
+        <v>1.021459361966305</v>
       </c>
       <c r="M21">
-        <v>1.042027146477541</v>
+        <v>1.041876633629389</v>
       </c>
       <c r="N21">
-        <v>1.012814031648697</v>
+        <v>1.014919130599976</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.041834056688147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.041714936070565</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021817650699228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9952981978419247</v>
+        <v>0.9957313791534264</v>
       </c>
       <c r="D22">
-        <v>1.019263969964716</v>
+        <v>1.019248258124223</v>
       </c>
       <c r="E22">
-        <v>1.003912212308896</v>
+        <v>1.004348556287603</v>
       </c>
       <c r="F22">
-        <v>1.025342611244803</v>
+        <v>1.025422360292266</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044473648524763</v>
+        <v>1.044630605627827</v>
       </c>
       <c r="J22">
-        <v>1.026246153845115</v>
+        <v>1.026660076282287</v>
       </c>
       <c r="K22">
-        <v>1.034463225669165</v>
+        <v>1.03444780990946</v>
       </c>
       <c r="L22">
-        <v>1.019406563871288</v>
+        <v>1.019834356858438</v>
       </c>
       <c r="M22">
-        <v>1.040428206272309</v>
+        <v>1.040506475821578</v>
       </c>
       <c r="N22">
-        <v>1.012179006723602</v>
+        <v>1.014759035706742</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.040568603950813</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.040630549042682</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021527291178079</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9970136229343689</v>
+        <v>0.9972702662091235</v>
       </c>
       <c r="D23">
-        <v>1.020457671974852</v>
+        <v>1.020265667018195</v>
       </c>
       <c r="E23">
-        <v>1.005254219773598</v>
+        <v>1.005532195768368</v>
       </c>
       <c r="F23">
-        <v>1.026516123062816</v>
+        <v>1.026461551059971</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04497200757178</v>
+        <v>1.045027090876013</v>
       </c>
       <c r="J23">
-        <v>1.027222930829295</v>
+        <v>1.027468503647132</v>
       </c>
       <c r="K23">
-        <v>1.035330779853199</v>
+        <v>1.035142299730382</v>
       </c>
       <c r="L23">
-        <v>1.020411886715132</v>
+        <v>1.020684558867955</v>
       </c>
       <c r="M23">
-        <v>1.041278890213876</v>
+        <v>1.041225304555482</v>
       </c>
       <c r="N23">
-        <v>1.012516988904915</v>
+        <v>1.0148002458512</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.041241862875696</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.041199453462237</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021677764402086</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.003626112059719</v>
+        <v>1.003282755240666</v>
       </c>
       <c r="D24">
-        <v>1.025071041796151</v>
+        <v>1.024264097981467</v>
       </c>
       <c r="E24">
-        <v>1.010443205358772</v>
+        <v>1.010185668424155</v>
       </c>
       <c r="F24">
-        <v>1.031058664593542</v>
+        <v>1.030539651732498</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046877972320298</v>
+        <v>1.046584158038384</v>
       </c>
       <c r="J24">
-        <v>1.030985288757444</v>
+        <v>1.030655021178403</v>
       </c>
       <c r="K24">
-        <v>1.03867173613613</v>
+        <v>1.03787809884946</v>
       </c>
       <c r="L24">
-        <v>1.024289375467455</v>
+        <v>1.024036242646046</v>
       </c>
       <c r="M24">
-        <v>1.044561458494853</v>
+        <v>1.044050873895682</v>
       </c>
       <c r="N24">
-        <v>1.013818337052989</v>
+        <v>1.01516028893317</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.043839788255588</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.043435696528098</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022274283228804</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.011027014218893</v>
+        <v>1.01022796285045</v>
       </c>
       <c r="D25">
-        <v>1.030256581081274</v>
+        <v>1.028929158894235</v>
       </c>
       <c r="E25">
-        <v>1.016281426360131</v>
+        <v>1.015621973065737</v>
       </c>
       <c r="F25">
-        <v>1.036179100082688</v>
+        <v>1.035278624803145</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048978867434568</v>
+        <v>1.0484066764425</v>
       </c>
       <c r="J25">
-        <v>1.035188889952622</v>
+        <v>1.034415950803113</v>
       </c>
       <c r="K25">
-        <v>1.042402681734592</v>
+        <v>1.041094392276884</v>
       </c>
       <c r="L25">
-        <v>1.028632144444842</v>
+        <v>1.027982523488818</v>
       </c>
       <c r="M25">
-        <v>1.048240592172856</v>
+        <v>1.047352902068055</v>
       </c>
       <c r="N25">
-        <v>1.015271112794648</v>
+        <v>1.016140759894912</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.046751556683239</v>
+        <v>1.046049015172708</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022983779841654</v>
       </c>
     </row>
   </sheetData>
